--- a/audience.xlsx
+++ b/audience.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Sona</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,13 @@
   </si>
   <si>
     <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>James</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,106 +523,116 @@
     </row>
     <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A28">
+  <sortState ref="A1:A30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
